--- a/biology/Médecine/Ailurophobie/Ailurophobie.xlsx
+++ b/biology/Médecine/Ailurophobie/Ailurophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ailurophobie est un type de phobie spécifique soit une peur irraisonnée des chats[1]. Le terme vient du grec ancien : αἴλουρος (aílouros), « chat »[2] et φόβος (phóbos), « peur ».
-Les synonymes du terme sont félinophobie[3], élurophobie[3] et gatophobie[3]. De ces trois termes, le terme « élurophobie » est le mieux formé, car il tient compte de la transcription classique du digraphe grec alpha-iota en « æ » latin, qu’on francise par é[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ailurophobie est un type de phobie spécifique soit une peur irraisonnée des chats. Le terme vient du grec ancien : αἴλουρος (aílouros), « chat » et φόβος (phóbos), « peur ».
+Les synonymes du terme sont félinophobie, élurophobie et gatophobie. De ces trois termes, le terme « élurophobie » est le mieux formé, car il tient compte de la transcription classique du digraphe grec alpha-iota en « æ » latin, qu’on francise par é.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette phobie se manifeste de différentes façons. Certains individus en souffrent tout le temps, d'autres juste par réponse directe avec l'animal. Certaines situations qui peuvent causer l'ailurophobie sont : le ronronnement, le contact visuel/physique direct avec un chat, la pensée de rencontrer un chat dans le noir, la vision du chat dans un film ou à la télévision et les jouets en forme de chat[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette phobie se manifeste de différentes façons. Certains individus en souffrent tout le temps, d'autres juste par réponse directe avec l'animal. Certaines situations qui peuvent causer l'ailurophobie sont : le ronronnement, le contact visuel/physique direct avec un chat, la pensée de rencontrer un chat dans le noir, la vision du chat dans un film ou à la télévision et les jouets en forme de chat.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différentes méthodes pour soigner l'ailurophobie ; le traitement est habituellement fait par un psychiatre ou autre professionnel de la santé mentale.
 </t>
